--- a/Documentation/GameMap.xlsx
+++ b/Documentation/GameMap.xlsx
@@ -19,9 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Aion Base Lab</t>
+  </si>
+  <si>
+    <t>Felandrian Plains</t>
+  </si>
+  <si>
+    <t>Xantoria Market</t>
+  </si>
+  <si>
+    <t>Norlon Corporate Headquarters</t>
+  </si>
+  <si>
+    <t>The Tamfasia Galactic Academy</t>
   </si>
 </sst>
 </file>
@@ -37,12 +49,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -72,10 +90,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,31 +384,41 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
